--- a/examples/sources/data/unsolved/to_schedule/2018-12-01.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,27 @@
     <t>Fiscal</t>
   </si>
   <si>
+    <t>Querellante</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Riesgosa</t>
+  </si>
+  <si>
+    <t>Detenido</t>
+  </si>
+  <si>
+    <t>A la Tarde</t>
+  </si>
+  <si>
+    <t>Boulogne</t>
+  </si>
+  <si>
+    <t>Alma Fuerte</t>
+  </si>
+  <si>
     <t>Fecha de Pedido</t>
   </si>
   <si>
@@ -65,6 +86,12 @@
   </si>
   <si>
     <t>Querellante particular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - DR. PABLO EDUARDO ORTIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - PABLO ORTIZ</t>
   </si>
   <si>
     <t>Olivera Mirtha (11 ra)</t>
@@ -429,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,13 +496,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>97624</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>842</v>
@@ -487,21 +535,36 @@
         <v>323</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>564</v>
       </c>
-      <c r="H2" s="2">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>97625</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>848</v>
@@ -513,21 +576,36 @@
         <v>323</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>1072</v>
       </c>
-      <c r="H3" s="2">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>97626</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>842</v>
@@ -539,38 +617,396 @@
         <v>562</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>564</v>
       </c>
-      <c r="H4" s="2">
-        <v>43435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
-        <v>97627</v>
+        <v>97626</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>842</v>
       </c>
       <c r="D5">
+        <v>426</v>
+      </c>
+      <c r="E5">
+        <v>562</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>564</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>97626</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>842</v>
+      </c>
+      <c r="D6">
+        <v>563</v>
+      </c>
+      <c r="E6">
+        <v>323</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>564</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>97626</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>842</v>
+      </c>
+      <c r="D7">
+        <v>432</v>
+      </c>
+      <c r="E7">
+        <v>323</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>564</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>97626</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>842</v>
+      </c>
+      <c r="D8">
+        <v>426</v>
+      </c>
+      <c r="E8">
+        <v>323</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>564</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>97626</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>842</v>
+      </c>
+      <c r="D9">
+        <v>432</v>
+      </c>
+      <c r="E9">
+        <v>323</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>564</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>97626</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>842</v>
+      </c>
+      <c r="D10">
+        <v>563</v>
+      </c>
+      <c r="E10">
+        <v>323</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>564</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>97626</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>842</v>
+      </c>
+      <c r="D11">
+        <v>426</v>
+      </c>
+      <c r="E11">
+        <v>323</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>564</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>97626</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>842</v>
+      </c>
+      <c r="D12">
+        <v>563</v>
+      </c>
+      <c r="E12">
+        <v>562</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>564</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>97627</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>842</v>
+      </c>
+      <c r="D13">
         <v>437</v>
       </c>
-      <c r="E5">
+      <c r="E13">
         <v>394</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13">
         <v>568</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>43435</v>
       </c>
     </row>
